--- a/DOWNLOADS/EDITAIS/U_160402_E_900102024/U_160402_E_900102024_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_160402_E_900102024/U_160402_E_900102024_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="215">
   <si>
     <t>Nº</t>
   </si>
@@ -632,300 +632,6 @@
   </si>
   <si>
     <t>Corda Corda Material: Sisal, Tipo: Torcida (3 Pernas), Diâmetro: 14MM, Cor: Amarela, Aplicação: Amarrações E Içamentos De Cargas Em Geral</t>
-  </si>
-  <si>
-    <t>-Alvo De Tiro Material: Papel Cartão , Tipo: Silhueta , Tamanho: 100 X 50 CM, Características Adicionais: Silhueta Preta</t>
-  </si>
-  <si>
-    <t>- Óculos Proteção Material Armação: Plástico Rígido , Tipo Proteção: Ampla Visão , Material Proteção: Policarbonato , Tipo Lente: Policarbonato Translúcido , Cor Lente: Cinza , Aplicação: Contra Impactos De Particulas E Ráios Ultravioleta , Características Adicionais: Ajuste Por Tirante Elástico Apresilhadas Nas Laterais.</t>
-  </si>
-  <si>
-    <t>- Capacete Segurança Material: Polietileno Alta Densidade , Tipo Aba: Frontal , Cor: Azul , Aplicação: Construção Civil , Características Adicionais: Logotipo Da Empresa C.A., Visível</t>
-  </si>
-  <si>
-    <t>- Mosquetão Material: Aço Carbono , Aplicação: Operações De Resgate , Características Adicionais: Sideup Aço Oval Trava Rosca Keylock Ce En , Resistência: 25 K</t>
-  </si>
-  <si>
-    <t>- Alvo De Tiro Material: Papel Cartão , Tipo: Retangular , Tamanho: 15 X 08 CM, Características Adicionais: Silhueta Preta</t>
-  </si>
-  <si>
-    <t>- Fardamento / Acessório Tipo: Elástico , Material: Borracha , Aplicação: Bombacha Militar , Tamanho: 15 CM, Características Adicionais: Engate Metálico</t>
-  </si>
-  <si>
-    <t>- Cadeado Material: Latão Maciço , Material Haste: Aço Temperado , Cor: Amarela , Altura: 30 MM, Largura: 30 MM, Características Adicionais: Chave Em Latão, Autoblocável Com Travas Oblíquas</t>
-  </si>
-  <si>
-    <t>- Cadeado Material: Latão Maciço , Material Haste: Aço Cementado/Cromado , Altura: 78 MM, Largura: 50 MM, Características Adicionais: 2 Chaves Em Latão Niquelado/Trava Dupla</t>
-  </si>
-  <si>
-    <t>- Cadeado Material: Latão Maciço , Material Haste: Aço Inoxidável , Altura: 69 MM, Largura: 50 MM, Quantidade Pinos: 16 UN, Características Adicionais: Com Chave Tipo Tetra E Trava Dupla</t>
-  </si>
-  <si>
-    <t>- Fita Plástica Material: Filme Polipropileno Biorientado , Largura: 6,50 CM, Comprimento: 180 M, Cor: Preta E Amarela , Aplicação: Isolamento E Delimitação De Área , Caracteristicas Adicionais: Zebrada</t>
-  </si>
-  <si>
-    <t>- Lona Plástica Espessura: 200 MICRA, Largura: 4 M, Comprimento: 100 M, Cor: Preta</t>
-  </si>
-  <si>
-    <t>- Obréia Material: Papel Celulose Vegetal , Formato: Circular , Apresentação: Auto Adesiva , Cor: Branca , Tamanho: Padrão , Aplicação: Cobrir Furos Causados Por Projéteis Nos Alvos.</t>
-  </si>
-  <si>
-    <t>- Obréia Material: Papel Celulose Vegetal , Formato: Circular , Apresentação: Auto Adesiva , Cor: Preta , Tamanho: Padrão , Aplicação: Cobrir Furos Causados Por Projéteis Nos Alvos.</t>
-  </si>
-  <si>
-    <t>- Obréia Material: Papel Celulose Vegetal , Formato: Circular , Apresentação: Auto Adesiva , Cor: Parda , Tamanho: Padrão , Aplicação: Cobrir Furos Causados Por Projéteis Nos Alvos.</t>
-  </si>
-  <si>
-    <t>- Luva Industrial Material: Raspa De Couro , Revestimento Interno: Sem Forro , Tamanho: Único , Tamanho Cano: Médio</t>
-  </si>
-  <si>
-    <t>- Escova Limpeza Geral Material Cerdas: Crina , Características Adicionais: Par De Escovas , Aplicação: Aplicação Limpeza E Polimento De Calçados. , Diâmetro: 145 M</t>
-  </si>
-  <si>
-    <t>- Papel Pardo Material: Celulose Vegetal , Tipo Papel: Reciclado , Comprimento: 96 CM, Largura: 66 CM, Gramatura: 80 G /M</t>
-  </si>
-  <si>
-    <t>- Placa Compensado Tipo: Comum , Tipo Miolo: Cedro , Acabamento Externo: Cedrinho , Comprimento: 2,20 M, Largura: 1,60 M, Espessura: 10 MM, Aplicação: Móveis Em Geral/Divisórias /Revestimentos /Forros</t>
-  </si>
-  <si>
-    <t>- Fita Isolante Elétrica Material Básico: Pvc Anti-Chama , Características Adicionais: De Alta Tensão , Largura Nominal: 10 MM, Comprimento Nominal: 10</t>
-  </si>
-  <si>
-    <t>- Projetor Imagem Tipo Imagem: Imagem Microcomputador (Multimídia) , Tipo Foco: Manual E Automático , Voltagem: Bivolt V, Características Adicionais: Controle Remoto, Wi-Fi, Bluetooth, Alto-Falante</t>
-  </si>
-  <si>
-    <t>- Protetor Auricular Tipo Concha: Plug De Três Flanges , Material: Silicone , Características Adicionais: Anti-Alérgico /Atóxico</t>
-  </si>
-  <si>
-    <t>- Corante Material: Corante Pó Com Pigmentos , Cor: Amarela , Aplicação: Multiuso , Apresentação: Caixa Com 250 Gramas , Tipo: Pó Xadrez / Vermelhão</t>
-  </si>
-  <si>
-    <t>- Corante Material: Corante Pó Com Pigmentos , Cor: Azul , Aplicação: Multiuso , Apresentação: Caixa Com 500 Gramas , Tipo: Pó Xadrez / Vermelhão</t>
-  </si>
-  <si>
-    <t>- Corante Material: Corante Pó Com Pigmentos , Cor: Verde , Aplicação: Multiuso , Apresentação: Caixa Com 500 Gramas , Tipo: Pó Xadrez / Vermelhão</t>
-  </si>
-  <si>
-    <t>- Corante Material: Corante Pó Com Pigmentos , Cor: Marrom , Aplicação: Multiuso , Apresentação: Caixa Com 500 Gramas , Tipo: Pó Xadrez / Vermelhão</t>
-  </si>
-  <si>
-    <t>- Corante Material: Corante Pó Com Pigmentos , Cor: Preta , Aplicação: Multiuso , Apresentação: Caixa Com 500 Gramas, Tipo: Pó Xadrez / Vermelhão</t>
-  </si>
-  <si>
-    <t>- Protetor Solar Tipo Proteção: Uva/Uvb , Fator Proteção: Fator 50 , Forma Farmacêutica: Loção Cremosa</t>
-  </si>
-  <si>
-    <t>- Plástico Material: Lisolene , Cor: Branca , Largura: 1,40 M, Tipo Uso: Decoração , Comprimento: 100cm</t>
-  </si>
-  <si>
-    <t>- Corda Material: Sisal , Tipo: Torcida (3 Pernas) , Diâmetro: 10 MM, Aplicação: Amarrações E Içamentos De Cargas Em Geral , Características Adicionais: Circunferência 31,7 Mm</t>
-  </si>
-  <si>
-    <t>- Colete Salva-Vidas Tipo: 4 , Capacidade: 130 KG, Características Adicionais: Não Inflável</t>
-  </si>
-  <si>
-    <t>- Esmerilhadeira Tipo: Angular , Voltagem: 220 V, Potência: 2.600 W, Rotação: 8.500 RPM, Diâmetro Disco: 7 PO</t>
-  </si>
-  <si>
-    <t>- Furadeira Tipo: Furadeira E Parafusadeira , Tamanho Mandril: 1/2 POL, Tensão Alimentação: Bivolt V, Características Adicionais: Com Velocidade Variável , Velocidade: Baixa: 0 /460 Rpm. Alta 0/1800 RPM, Acessórios: 1 Bateria, Carregador E Maleta</t>
-  </si>
-  <si>
-    <t>- Furadeira Tipo: Furadeira E Parafusadeira , Tamanho Mandril: 3/8 POL, Tensão Alimentação: 12 V, Características Adicionais: Com Velocidade Variável E Reversível, Carregador Bi , Acessórios: Empunhadura Ergonômica</t>
-  </si>
-  <si>
-    <t>- Martelo Perfurador Tipo: Rompedor , Voltagem: 220 V, Potência: 850 W, Aplicação: Demolição De Pisos E Concretos</t>
-  </si>
-  <si>
-    <t>- Motoserra Industrial Potência: 4,20 KW, Capacidade Tanque Combustível: 0,90 L, Cilindrada Motor: 80,70 CM3, Características Adicionais: Sabre De 45 A 70 Cm, Passo Da Corrente De 3/8 Pol</t>
-  </si>
-  <si>
-    <t>- Roçadeira Manual Tipo Motor: Gasolina , Potência Motor: 2,2 HP, Tipo Cortador: Fio Náilon E/Ou Lâmina Aço , Rotação: 12.300 RPM, Peso Aproximado: 7,30 KG, Tipo Empunhadeira: Guidões Ajustáveis , Características Adicionais: Motor 2 Tempos, 40,2 Cilindradas,Tubo Em Alumínio</t>
-  </si>
-  <si>
-    <t>- Trena Eletrônica Tipo: Eletrônica Digital , Método De Medição: A Laser , Alcance: 40 M, Tipo Visor: Cristal Líquido , Caracteristicas Adicionais: Medição De Distância, Cálculo De Área</t>
-  </si>
-  <si>
-    <t>- Trena Material: Fibra Vidro , Comprimento: 50 M, Características Adicionais: Estojo Anatômico Com Manivela Dobrável</t>
-  </si>
-  <si>
-    <t>- Sistema Global De Posicionamento - Global Tipo: Digital , Display: 2,2? Com Leitura Em Intensidade Luz Solar , Padrão: Sistema De Satélite: Gps E Glonass , Resolução: 240 X 320 Pixels PX, Memória: 8 GB, Características Adicionais: Com 01 Slot Cartão Microsd, Cabo Usb-Mini</t>
-  </si>
-  <si>
-    <t>- Multímetro Tensão Ac: 200 /600 V, Corrente Dc: 10 A, Resistência: 0-2 Kohm A 0-20 MOHM, Características Adicionais: Display 3 1/2 Dígitos, 2.000 Contagens , Tensão Dc: 200mv/2v /20v/200v/600 V, Tipo: Digital , Funcionamento: Bateria 9v</t>
-  </si>
-  <si>
-    <t>- Tirfor Alavanca Material: Aço , Capacidade: 4.000 KG, Aplicação: Arrastar E Levantar Cargas , Características Adicionais: Carretel Para Alavanca E Cabo De Manuseio , Diâmetro: 15,80 MM, Comprimento: 50 M, Capacidade Tração: 5.000 K</t>
-  </si>
-  <si>
-    <t>- Grampeador Material: Aço , Tipo: Tapeceiro , Tamanho Grampo: 106/4 A 106 /14</t>
-  </si>
-  <si>
-    <t>- Cinta Suspensão Carga Material: Poliéster , Comprimento: 10 M, Largura: 300 MM, Capacidade: 10 T, Aplicação: Suspensão E Amarração De Cargas , Características Adicionais: Fator De Segurança 7:1 , Tipo: Sling 300 , Componentes Adicionais: Com Olhais Reforçados Nas Extremidades</t>
-  </si>
-  <si>
-    <t>- Serrote Profissional Material Lâmina: Aço Alto Carbono , Tratamento Superficial: Temperado E Lixado , Tipo: Travado , Quantidade Dentes: 7 Por Polegada UN, Material Cabo: Madeira , Tamanho: 22 PO</t>
-  </si>
-  <si>
-    <t>- Alicate De Pressão Material: Ferro , Mordente Inferior: Curvo , Abertura Da Boca: 28 MM, Características Adicionais: Cromo Venádio , Comprimento: 10 PO</t>
-  </si>
-  <si>
-    <t>- Alicate De Corte Material: Aço Cromo Vanádio , Tipo Corte: Frontal , Comprimento: 160 M</t>
-  </si>
-  <si>
-    <t>- Facão Material Lâmina: Aço , Material Cabo: Madeira , Comprimento: 12 POL, Tipo: Para Mato</t>
-  </si>
-  <si>
-    <t>- Facão Material Lâmina: Aço , Material Cabo: Madeira , Comprimento: 16 POL, Tipo: Para Mato</t>
-  </si>
-  <si>
-    <t>- Facão Material Lâmina: Aço , Material Cabo: Madeira , Comprimento: 20 POL, Tipo: Para Mato</t>
-  </si>
-  <si>
-    <t>- Óculos Proteção Material Armação: Policarbonato , Tipo Proteção: Lateral /Frontal , Tipo Lente: Policarbonato Com Tratamento Anti-Rísco E Anti-Em , Cor Lente: Incolor , Características Adicionais: Contra Luminosidade Intensa, Raios</t>
-  </si>
-  <si>
-    <t>- Alvo De Tiro Material: Papel Cartão , Tipo: Quadrado , Tamanho: 20 X 20 CM, Características Adicionais: Silhueta Preta</t>
-  </si>
-  <si>
-    <t>- Aeronaves Teleguiadas Tipo: Aeronave Remotamente Pilotada (Drone) , Quantidade Motores: 4 Motores , Tamanho Diagonal: 350 MM, Peso Máximo: 1.300 G, Velocidade Ascensão Vertical: 20 M/S, Características Adicionais: Câmera, Controle Remoto, Detector Obstáculos</t>
-  </si>
-  <si>
-    <t>- Tela Tipo Concertina Tipo: Farpada , Formato: Helicoidal , Comprimento: 10 M, Diâmetro: 45 C</t>
-  </si>
-  <si>
-    <t>- Bússola Navegação Material: Termoplástico De Alta, Média E Baixa Densidade , Aplicação: Confecção De Bússola De Navegação</t>
-  </si>
-  <si>
-    <t>- Instrumento Musical - Percursão Tipo: Caixa De Guerra , Material: Alumínio , Componentes: 06 Afinadores Cromados, Pele Porosa, Pele Resposta , Tamanho: 14" X 15 C</t>
-  </si>
-  <si>
-    <t>- Bombo Material: Alumínio , Tamanho: 30 X 22 C</t>
-  </si>
-  <si>
-    <t>- Cabo Ferramenta Material Cabo: Madeira , Comprimento Cabo: 945 MM, Formato Cabo: Cilíndrico , Características Adicionais: Base 67 Mm , Aplicação: Picareta</t>
-  </si>
-  <si>
-    <t>- Cabo Ferramenta Material Cabo: Madeira , Comprimento Cabo: 1 M, Formato Cabo: Cilíndrico , Aplicação: Foice</t>
-  </si>
-  <si>
-    <t>- Cabo Ferramenta Material Cabo: Madeira Trabalhada , Comprimento Cabo: 1,50 M, Formato Cabo: Cilíndrico , Características Adicionais: Abertura Para Cunha, Diâmetro 4,50 Cm , Aplicação: Enxada</t>
-  </si>
-  <si>
-    <t>- Marreta Material: Ferro , Material Cabo: Madeira , Peso: 500g</t>
-  </si>
-  <si>
-    <t>- Marreta Material: Ferro , Material Cabo: Madeira , Peso: 1.000g</t>
-  </si>
-  <si>
-    <t>- Marreta Material: Ferro , Material Cabo: Madeira , Peso: 2.000g</t>
-  </si>
-  <si>
-    <t>- Enxada Material: Aço Carbono , Largura: 296 MM, Material Cabo: Madeira , Comprimento Cabo: 150 C</t>
-  </si>
-  <si>
-    <t>- Serra Circular Industrial Material: Ferro Fundido , Tipo Serra: Circular/ Bancada , Tipo Acionamento: Elétrica , Características Adicionais: Conforme Modelo</t>
-  </si>
-  <si>
-    <t>- Serra Mármore Potência: 1.450 W, Voltagem: 220</t>
-  </si>
-  <si>
-    <t>- Saco Material: Rafia , Altura: 90 CM, Largura: 65 CM, Cor: Branca</t>
-  </si>
-  <si>
-    <t>- Saco Material: Ráfia Trançado , Altura: 120 CM, Largura: 70 CM, Aplicação: Acondicionamento De Objetos Variados , Cor: Branca</t>
-  </si>
-  <si>
-    <t>- Mosquetão Material: Aço , Aplicação: Treinamento Militar , Características Adicionais: Abertura 20mm, Com Dupla Trava De Segurança , Resistência: 450 K</t>
-  </si>
-  <si>
-    <t>- Mosquetão Material: Alumínio , Aplicação: Operações De Resgate , Características Adicionais: Modelo "D" Com Rosca , Resistência: 30 K</t>
-  </si>
-  <si>
-    <t>- Acessório Equipamento Segurança Tipo: Freio Oito , Material: Aço Inox , Aplicação: Equipamento Para Rapel , Características Adicionais: Carga 100 Kn</t>
-  </si>
-  <si>
-    <t>- Luva Segurança Material: Couro , Tamanho: Único , Aplicação: Rapel , Características Adicionais: Palma Reforçada, Dupla Camada De Couro , Forma: 5 Dedos , Modelo: Punho Em Neoprene E Feixo Em Velcro</t>
-  </si>
-  <si>
-    <t>- Bastão Sinalizador Tipo: Luz Química , Comprimento: 15 CM, Cor: Variada , Duração: 12 H, Aplicação: Sinalização De Atividades Noturnas</t>
-  </si>
-  <si>
-    <t>- Pincel Atômico Material: Plástico Reciclado , Tipo Ponta: Feltro , Tipo Carga: Descartável , Cor Tinta: Vermelha</t>
-  </si>
-  <si>
-    <t>- Pincel Atômico Material: Plástico Reciclado , Tipo Ponta: Feltro , Tipo Carga: Descartável , Cor Tinta: Preta</t>
-  </si>
-  <si>
-    <t>- Pincel Atômico Material: Plástico, Reciclado , Tipo Ponta: Feltro , Tipo Carga: Descartável , Cor Tinta: Verde</t>
-  </si>
-  <si>
-    <t>- Pincel Atômico Material: Plástico Reciclado , Tipo Ponta: Feltro , Tipo Carga: Descartável , Cor Tinta: Azul</t>
-  </si>
-  <si>
-    <t>- Quadro Tipo: Com Moldura , Material Moldura: Alumínio , Largura: 2,75 M, Características Adicionais: Em Mdf Tratado E Revestido Com A Película , Aplicação: Para Uso Em Salas De Aula , Espessura: 1,5 CM, Material: Mdf/Alumínio , Tratamento Superficial: Branca Fosca(Npb-001 / Npb-002) , Altura: 1,20</t>
-  </si>
-  <si>
-    <t>- Quadro Tipo: Com Moldura , Material Moldura: Alumínio , Largura: 60 CM, Características Adicionais: Com Suporte Para Apagador E Canetas , Aplicação: Sala De Aula , Espessura: 5 CM, Altura: 90 CM, Cor Moldura: Incolor</t>
-  </si>
-  <si>
-    <t>284200 - Escudo Proteção Material: Laminado Composto Resinas, Matriz Termoplástica, N , Altura: 1.000 MM, Largura: 565 MM, Peso: 8 KG, Uso: Balística , Aplicação: Policial , Características Adicionais: Visor Confeccionado Em Policarbonato 100% Translúcido</t>
-  </si>
-  <si>
-    <t>- Tonfa Material: Fibra De Carbono , Comprimento: 58 CM, Cor: Preta , Aplicação: Policiamento</t>
-  </si>
-  <si>
-    <t>- Máscara Mergulhador Material: Silicone , Tipo: SemiFacial , Características Adicionais: Com Ajustador De Tira Resistente, Ligado Diretamen</t>
-  </si>
-  <si>
-    <t>- Óculos Proteção Material Armação: Plástico Rígido , Tipo Proteção: Ampla Visão , Material Proteção: Policarbonato , Tipo Lente: Policarbonato Translúcido , Cor Lente: Cinza , Aplicação: Contra Impactos De Particulas E Ráios Ultravioleta , Características Adicionais: Ajuste Por Tirante Elástico Apresilhadas Nas Laterais</t>
-  </si>
-  <si>
-    <t>- Talabarte De Salvamento E Seguranca Material: Poliéster , Modelo: Y , Componentes: 02 Ganchos Dupla Trava /02 Absorvedores De Energia , Características Adicionais: Elástico Interno /Gancho:55mm/Dupla Trava Com 15mm</t>
-  </si>
-  <si>
-    <t>- Acessório Equipamento Segurança Tipo: Paraquedista , Material: Poliéster , Aplicação: Proteção Individual , Características Adicionais: Carga 100 Kg , Formato: Cadeirinha</t>
-  </si>
-  <si>
-    <t>- Luva Segurança Material: Algodão E Poliéster , Aplicação: Segurança E Proteção Individual. , Características Adicionais: Palma Com Borracha E Elástico Nos Punhos , Cor: Cinza , Tipo: Antiderrapante, Cano Curto</t>
-  </si>
-  <si>
-    <t>- Roupa Mergulhador Tipo: Peça Única, Ziper Nas Costas , Tamanho: G , Aplicação: Salvamento Sub-Aquático , Características Adicionais: Impermeável, Isolamento Térmico, Refoços Nos Joelh , Material: Neoprene , Espessura: 2,5 M</t>
-  </si>
-  <si>
-    <t>- Roupa Mergulhador Tipo: Peça Única, Ziper Nas Costas , Tamanho: M , Aplicação: Salvamento Sub-Aquático , Características Adicionais: Impermeável, Isolamento Térmico, Refoços Nos Joelh , Material: Neoprene , Espessura: 2,5 M</t>
-  </si>
-  <si>
-    <t>- Bota Segurança Material: Neoprene , Material Sola: Borracha , Cor: Preta , Tamanho: Sob Medida , Características Adicionais: Reforço De Borracha No Peito Do Pé E No Calcanhar</t>
-  </si>
-  <si>
-    <t>- Caixa Protetora Equipamento Eletrônico Material: Polietileno , Revestimento: Laminado , Cor Revestimento: Preta , Acabamento Superficial: Alumínio , Profundidade: 40 CM, Altura: 40 CM, Largura: 70 C</t>
-  </si>
-  <si>
-    <t>- Máscara Soldador Tipo: Fotosensível , Tempo Escurecimento: 0,5 Milissegundos , Tempo Clareamento: 0,2 / 0,4 Segundo , Área De Visão: 90 X 34 MM, Temperatura Operação: -20 + 65 °C, Características Adicionais: Regulagem Da Lente Gradual de 9 A 13 Din.</t>
-  </si>
-  <si>
-    <t>- Abafador Ruído Auricular Material: Polietileno , Cor: Vermelha , Formato: Concha , Tamanho: Regulável , Uso: Absorção Ruído , Características Adicionais: Nível De Redução Ruído Acima De 85 Db</t>
-  </si>
-  <si>
-    <t>- Respirador Material: Camadas Fibras Sintéticas , Quantidade Pontos Fixação: Tiras Vedação Anatômica, Clipe Nasal , Tamanho Peça Facial: Adulto , Aplicação: Classe N99, Pff3 Ou Equivalente , Características Adicionais: Eficiência Filtração Mínima 99% - Sl , Tipo: C/ Cor, Carvão Ativado , Tipo Uso: Descartável , Formato: Dobrável, Tipo Bico De Pato , Quantidade Válvulas: C/ Válvulas</t>
-  </si>
-  <si>
-    <t>- Acessório Equipamento Segurança Tipo: Kit Para Camuflagem , Aplicação: Atividade Militar , Componentes: 5 Potes, 2 Verdes, 2 Pretos, 1 Marrom , Outros Componentes: (1), Tinta Orgânica A Base De Vaselina</t>
-  </si>
-  <si>
-    <t>- Lanterna De Cabeça/Capacete Alimentação: 3 Pilhas Aaa , Tipo Lâmpada: 6 Led1s E 1 Halógena , Capacidade Focal: Led'S: 15 Metros E Lâmpadas Halógena: 30 Metros , Material Lente: Polipropileno , Características Adicionais: À Prova D'Água /Presilhas Ajustáveis/Regulador Foco</t>
-  </si>
-  <si>
-    <t>Furadeira profissional para motoserra com as seguintes especificações: Escovamento interno do fio - Peso: 1,540kg - Redução: 5 /1- Rotação 2500 RPM.</t>
-  </si>
-  <si>
-    <t>Nível à laser ponto a ponto com tripé de alumínio com coluna elevatória, com as seguintes especificações: Díodo laser: 635nm, &lt; 1 mW - Temperatura de serviço: -10 – 40 °C - Classe de laser: 2 - Raio de ação: 10m - Raio de ação com receptor laser: 50m - Precisão: mais ou menos 0,3 mm/m - Raio de ação dos pontos laser, máx.: 5 m (fundo) - Projeção: 3 linhas - Precisão do ponto de prumo: mais ou menos 0,6 mm/m - Gama de auto nivelamento: mais ou menos 4° - Tempo de nivelamento: 4 s - Proteção contra pó e projeções de água: IP 54 - Alimentação elétrica: 4 x 1,5 V LR6 (AA) - Tempo de autonomia (máx.): 18 h no modo de 1 linha - Rosca do tripé: 1/4", 5/8” - .</t>
-  </si>
-  <si>
-    <t>Voltímetro digital indicador universal 85- 250 VCA com as seguintes especificações: Tensão Elétrica: 85- 250VCA - Temperatura de Trabalho: Entre - 10°C e 60° C - Tipo: Universal - Tensão DC: 0- 1000VDC - Tensão AC: 0-750VAC - Tipo de Saída: Uma saída a relé 5A.</t>
-  </si>
-  <si>
-    <t>Corda material: Sisal, tipo: torcida (3 pernas), diâmetro: 14mm, aplicação: amarrações e içamentos de cargas.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1353,7 +1059,7 @@
         <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>2790</v>
@@ -1365,13 +1071,13 @@
         <v>11494.8</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1382,7 +1088,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>898</v>
@@ -1394,13 +1100,13 @@
         <v>34483.2</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1411,7 +1117,7 @@
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>1700</v>
@@ -1423,13 +1129,13 @@
         <v>17000</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1440,7 +1146,7 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>357</v>
@@ -1452,13 +1158,13 @@
         <v>9282</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1469,7 +1175,7 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>2750</v>
@@ -1481,13 +1187,13 @@
         <v>2090</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1498,7 +1204,7 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>3560</v>
@@ -1510,13 +1216,13 @@
         <v>13563.6</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1527,7 +1233,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>664</v>
@@ -1539,13 +1245,13 @@
         <v>17337.04</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1556,7 +1262,7 @@
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>320</v>
@@ -1568,13 +1274,13 @@
         <v>19520</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1585,7 +1291,7 @@
         <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>279</v>
@@ -1597,13 +1303,13 @@
         <v>10044</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1614,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>275</v>
@@ -1626,13 +1332,13 @@
         <v>2904</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1643,7 +1349,7 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D12">
         <v>490</v>
@@ -1655,13 +1361,13 @@
         <v>137190.2</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1672,7 +1378,7 @@
         <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>257</v>
@@ -1684,13 +1390,13 @@
         <v>1285</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1701,7 +1407,7 @@
         <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>267</v>
@@ -1713,13 +1419,13 @@
         <v>1735.5</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1730,7 +1436,7 @@
         <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D15">
         <v>261</v>
@@ -1742,13 +1448,13 @@
         <v>2116.71</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1759,7 +1465,7 @@
         <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D16">
         <v>1235</v>
@@ -1771,13 +1477,13 @@
         <v>16981.25</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1788,7 +1494,7 @@
         <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="D17">
         <v>518</v>
@@ -1800,13 +1506,13 @@
         <v>5402.74</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1817,7 +1523,7 @@
         <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D18">
         <v>483</v>
@@ -1829,13 +1535,13 @@
         <v>37818.9</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="H18" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1846,7 +1552,7 @@
         <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D19">
         <v>863</v>
@@ -1858,13 +1564,13 @@
         <v>55534.05</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H19" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1875,7 +1581,7 @@
         <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D20">
         <v>962</v>
@@ -1887,13 +1593,13 @@
         <v>5425.679999999999</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1904,7 +1610,7 @@
         <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D21">
         <v>24</v>
@@ -1916,13 +1622,13 @@
         <v>117600</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H21" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1933,7 +1639,7 @@
         <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="D22">
         <v>2670</v>
@@ -1945,13 +1651,13 @@
         <v>6621.6</v>
       </c>
       <c r="G22" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1962,7 +1668,7 @@
         <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D23">
         <v>247</v>
@@ -1974,13 +1680,13 @@
         <v>3947.06</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I23" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1991,7 +1697,7 @@
         <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>247</v>
@@ -2003,13 +1709,13 @@
         <v>6150.299999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I24" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2020,7 +1726,7 @@
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -2032,13 +1738,13 @@
         <v>5317.759999999999</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I25" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2049,7 +1755,7 @@
         <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="D26">
         <v>204</v>
@@ -2061,13 +1767,13 @@
         <v>4671.599999999999</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I26" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2078,7 +1784,7 @@
         <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="D27">
         <v>224</v>
@@ -2090,13 +1796,13 @@
         <v>5013.12</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I27" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2107,7 +1813,7 @@
         <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="D28">
         <v>1895</v>
@@ -2119,13 +1825,13 @@
         <v>42448</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I28" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2136,7 +1842,7 @@
         <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="D29">
         <v>437</v>
@@ -2148,13 +1854,13 @@
         <v>80088.99000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I29" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2165,7 +1871,7 @@
         <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="D30">
         <v>94</v>
@@ -2177,13 +1883,13 @@
         <v>34780</v>
       </c>
       <c r="G30" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I30" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2194,7 +1900,7 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="D31">
         <v>500</v>
@@ -2206,13 +1912,13 @@
         <v>75995</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H31" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2223,7 +1929,7 @@
         <v>139</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>41</v>
@@ -2235,13 +1941,13 @@
         <v>27018.59</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2252,7 +1958,7 @@
         <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="D33">
         <v>34</v>
@@ -2264,13 +1970,13 @@
         <v>14184.8</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2281,7 +1987,7 @@
         <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D34">
         <v>40</v>
@@ -2293,13 +1999,13 @@
         <v>18732.8</v>
       </c>
       <c r="G34" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H34" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2310,7 +2016,7 @@
         <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -2322,13 +2028,13 @@
         <v>17886.68</v>
       </c>
       <c r="G35" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2339,7 +2045,7 @@
         <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -2351,13 +2057,13 @@
         <v>123506.7</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2368,7 +2074,7 @@
         <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D37">
         <v>66</v>
@@ -2380,13 +2086,13 @@
         <v>181420.8</v>
       </c>
       <c r="G37" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2397,7 +2103,7 @@
         <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="D38">
         <v>71</v>
@@ -2409,13 +2115,13 @@
         <v>15407</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2426,7 +2132,7 @@
         <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="D39">
         <v>107</v>
@@ -2438,13 +2144,13 @@
         <v>6644.7</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2455,7 +2161,7 @@
         <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>34</v>
@@ -2467,13 +2173,13 @@
         <v>134928.32</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H40" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2484,7 +2190,7 @@
         <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="D41">
         <v>100</v>
@@ -2496,13 +2202,13 @@
         <v>7800</v>
       </c>
       <c r="G41" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H41" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I41" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2513,7 +2219,7 @@
         <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="D42">
         <v>50</v>
@@ -2525,13 +2231,13 @@
         <v>12999.5</v>
       </c>
       <c r="G42" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2542,7 +2248,7 @@
         <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>114</v>
@@ -2554,13 +2260,13 @@
         <v>9462</v>
       </c>
       <c r="G43" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H43" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2571,7 +2277,7 @@
         <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="D44">
         <v>178</v>
@@ -2583,13 +2289,13 @@
         <v>75472</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2600,7 +2306,7 @@
         <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <v>77</v>
@@ -2612,13 +2318,13 @@
         <v>3349.5</v>
       </c>
       <c r="G45" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2629,7 +2335,7 @@
         <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="D46">
         <v>83</v>
@@ -2641,13 +2347,13 @@
         <v>4205.610000000001</v>
       </c>
       <c r="G46" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H46" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2658,7 +2364,7 @@
         <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="D47">
         <v>79</v>
@@ -2670,13 +2376,13 @@
         <v>4510.900000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H47" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2687,7 +2393,7 @@
         <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="D48">
         <v>195</v>
@@ -2699,13 +2405,13 @@
         <v>3900</v>
       </c>
       <c r="G48" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H48" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2716,7 +2422,7 @@
         <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D49">
         <v>185</v>
@@ -2728,13 +2434,13 @@
         <v>7400</v>
       </c>
       <c r="G49" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2745,7 +2451,7 @@
         <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="D50">
         <v>209</v>
@@ -2757,13 +2463,13 @@
         <v>8778</v>
       </c>
       <c r="G50" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H50" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I50" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2774,7 +2480,7 @@
         <v>158</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="D51">
         <v>1568</v>
@@ -2786,13 +2492,13 @@
         <v>24304</v>
       </c>
       <c r="G51" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I51" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2803,7 +2509,7 @@
         <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="D52">
         <v>2830</v>
@@ -2815,13 +2521,13 @@
         <v>4782.7</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2832,7 +2538,7 @@
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="D53">
         <v>14</v>
@@ -2844,13 +2550,13 @@
         <v>55482</v>
       </c>
       <c r="G53" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I53" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2861,7 +2567,7 @@
         <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="D54">
         <v>100</v>
@@ -2873,13 +2579,13 @@
         <v>16990</v>
       </c>
       <c r="G54" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H54" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I54" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2890,7 +2596,7 @@
         <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="D55">
         <v>162</v>
@@ -2902,13 +2608,13 @@
         <v>4210.38</v>
       </c>
       <c r="G55" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H55" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I55" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2919,7 +2625,7 @@
         <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="D56">
         <v>12</v>
@@ -2931,13 +2637,13 @@
         <v>2748</v>
       </c>
       <c r="G56" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H56" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I56" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2948,7 +2654,7 @@
         <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="D57">
         <v>12</v>
@@ -2960,13 +2666,13 @@
         <v>5777.28</v>
       </c>
       <c r="G57" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H57" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I57" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2977,7 +2683,7 @@
         <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="D58">
         <v>152</v>
@@ -2989,13 +2695,13 @@
         <v>2964</v>
       </c>
       <c r="G58" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I58" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3006,7 +2712,7 @@
         <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="D59">
         <v>147</v>
@@ -3018,13 +2724,13 @@
         <v>2572.5</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I59" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3035,7 +2741,7 @@
         <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="D60">
         <v>152</v>
@@ -3047,13 +2753,13 @@
         <v>3070.4</v>
       </c>
       <c r="G60" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H60" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3064,7 +2770,7 @@
         <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="D61">
         <v>84</v>
@@ -3076,13 +2782,13 @@
         <v>4524.24</v>
       </c>
       <c r="G61" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H61" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3093,7 +2799,7 @@
         <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="D62">
         <v>84</v>
@@ -3105,13 +2811,13 @@
         <v>3780</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I62" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3122,7 +2828,7 @@
         <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="D63">
         <v>85</v>
@@ -3134,13 +2840,13 @@
         <v>8065.65</v>
       </c>
       <c r="G63" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H63" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I63" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3151,7 +2857,7 @@
         <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="D64">
         <v>125</v>
@@ -3163,13 +2869,13 @@
         <v>8036.250000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H64" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I64" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3180,7 +2886,7 @@
         <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="D65">
         <v>28</v>
@@ -3192,13 +2898,13 @@
         <v>42672</v>
       </c>
       <c r="G65" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I65" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3209,7 +2915,7 @@
         <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="D66">
         <v>46</v>
@@ -3221,13 +2927,13 @@
         <v>22494</v>
       </c>
       <c r="G66" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H66" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I66" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3238,7 +2944,7 @@
         <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="D67">
         <v>1550</v>
@@ -3250,13 +2956,13 @@
         <v>3208.5</v>
       </c>
       <c r="G67" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I67" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3267,7 +2973,7 @@
         <v>175</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="D68">
         <v>600</v>
@@ -3279,13 +2985,13 @@
         <v>2232</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H68" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I68" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3296,7 +3002,7 @@
         <v>176</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="D69">
         <v>131</v>
@@ -3308,13 +3014,13 @@
         <v>5027.780000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I69" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3325,7 +3031,7 @@
         <v>177</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>144</v>
@@ -3337,13 +3043,13 @@
         <v>11376</v>
       </c>
       <c r="G70" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I70" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3354,7 +3060,7 @@
         <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="D71">
         <v>97</v>
@@ -3366,13 +3072,13 @@
         <v>8885.199999999999</v>
       </c>
       <c r="G71" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H71" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I71" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3383,7 +3089,7 @@
         <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="D72">
         <v>258</v>
@@ -3395,13 +3101,13 @@
         <v>19605.42</v>
       </c>
       <c r="G72" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H72" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I72" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3412,7 +3118,7 @@
         <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="D73">
         <v>1647</v>
@@ -3424,13 +3130,13 @@
         <v>25446.15</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I73" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3441,7 +3147,7 @@
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="D74">
         <v>259</v>
@@ -3453,13 +3159,13 @@
         <v>1665.37</v>
       </c>
       <c r="G74" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H74" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I74" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3470,7 +3176,7 @@
         <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="D75">
         <v>277</v>
@@ -3482,13 +3188,13 @@
         <v>1390.54</v>
       </c>
       <c r="G75" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H75" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I75" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3499,7 +3205,7 @@
         <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="D76">
         <v>254</v>
@@ -3511,13 +3217,13 @@
         <v>889</v>
       </c>
       <c r="G76" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H76" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I76" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3528,7 +3234,7 @@
         <v>184</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="D77">
         <v>253</v>
@@ -3540,13 +3246,13 @@
         <v>1596.43</v>
       </c>
       <c r="G77" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H77" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3557,7 +3263,7 @@
         <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="D78">
         <v>89</v>
@@ -3569,13 +3275,13 @@
         <v>46940.38</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H78" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I78" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3586,7 +3292,7 @@
         <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="D79">
         <v>51</v>
@@ -3598,13 +3304,13 @@
         <v>6573.900000000001</v>
       </c>
       <c r="G79" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H79" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I79" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3615,7 +3321,7 @@
         <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="D80">
         <v>130</v>
@@ -3627,13 +3333,13 @@
         <v>150540</v>
       </c>
       <c r="G80" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H80" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I80" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3644,7 +3350,7 @@
         <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="D81">
         <v>100</v>
@@ -3656,13 +3362,13 @@
         <v>4782</v>
       </c>
       <c r="G81" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H81" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3673,7 +3379,7 @@
         <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <v>70</v>
@@ -3685,13 +3391,13 @@
         <v>10710</v>
       </c>
       <c r="G82" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H82" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="I82" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3702,7 +3408,7 @@
         <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="D83">
         <v>411</v>
@@ -3714,13 +3420,13 @@
         <v>34935</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3731,7 +3437,7 @@
         <v>111</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D84">
         <v>452</v>
@@ -3743,13 +3449,13 @@
         <v>22554.8</v>
       </c>
       <c r="G84" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H84" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I84" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3760,7 +3466,7 @@
         <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>130</v>
@@ -3772,13 +3478,13 @@
         <v>8125</v>
       </c>
       <c r="G85" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H85" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I85" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3789,7 +3495,7 @@
         <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D86">
         <v>69</v>
@@ -3801,13 +3507,13 @@
         <v>12192.99</v>
       </c>
       <c r="G86" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H86" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I86" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3818,7 +3524,7 @@
         <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D87">
         <v>75</v>
@@ -3830,13 +3536,13 @@
         <v>17625</v>
       </c>
       <c r="G87" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H87" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I87" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3847,7 +3553,7 @@
         <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="D88">
         <v>1245</v>
@@ -3859,13 +3565,13 @@
         <v>29880</v>
       </c>
       <c r="G88" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H88" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3876,7 +3582,7 @@
         <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="D89">
         <v>72</v>
@@ -3888,13 +3594,13 @@
         <v>51480</v>
       </c>
       <c r="G89" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H89" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I89" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3905,7 +3611,7 @@
         <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="D90">
         <v>72</v>
@@ -3917,13 +3623,13 @@
         <v>64008</v>
       </c>
       <c r="G90" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H90" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I90" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3934,7 +3640,7 @@
         <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D91">
         <v>145</v>
@@ -3946,13 +3652,13 @@
         <v>57565</v>
       </c>
       <c r="G91" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H91" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I91" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3963,7 +3669,7 @@
         <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="D92">
         <v>43</v>
@@ -3975,13 +3681,13 @@
         <v>1032</v>
       </c>
       <c r="G92" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H92" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I92" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3992,7 +3698,7 @@
         <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="D93">
         <v>72</v>
@@ -4004,13 +3710,13 @@
         <v>51480</v>
       </c>
       <c r="G93" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H93" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I93" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4021,7 +3727,7 @@
         <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D94">
         <v>295</v>
@@ -4033,13 +3739,13 @@
         <v>20650</v>
       </c>
       <c r="G94" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H94" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I94" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4050,7 +3756,7 @@
         <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="D95">
         <v>2614</v>
@@ -4062,13 +3768,13 @@
         <v>10978.8</v>
       </c>
       <c r="G95" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H95" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I95" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4079,7 +3785,7 @@
         <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D96">
         <v>2205</v>
@@ -4091,13 +3797,13 @@
         <v>29238.3</v>
       </c>
       <c r="G96" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H96" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I96" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4108,7 +3814,7 @@
         <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="D97">
         <v>373</v>
@@ -4120,13 +3826,13 @@
         <v>26110</v>
       </c>
       <c r="G97" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H97" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I97" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4137,7 +3843,7 @@
         <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="D98">
         <v>20</v>
@@ -4149,13 +3855,13 @@
         <v>8060.599999999999</v>
       </c>
       <c r="G98" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H98" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I98" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4166,7 +3872,7 @@
         <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D99">
         <v>42</v>
@@ -4178,13 +3884,13 @@
         <v>3998.4</v>
       </c>
       <c r="G99" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H99" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I99" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4195,7 +3901,7 @@
         <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D100">
         <v>75</v>
@@ -4207,13 +3913,13 @@
         <v>13959</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H100" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I100" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4224,7 +3930,7 @@
         <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="D101">
         <v>40</v>
@@ -4236,13 +3942,13 @@
         <v>26236</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H101" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I101" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4253,7 +3959,7 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D102">
         <v>2790</v>
@@ -4265,13 +3971,13 @@
         <v>11494.8</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H102" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I102" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4282,7 +3988,7 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D103">
         <v>898</v>
@@ -4294,13 +4000,13 @@
         <v>34483.2</v>
       </c>
       <c r="G103" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H103" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I103" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4311,7 +4017,7 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D104">
         <v>1700</v>
@@ -4323,13 +4029,13 @@
         <v>17000</v>
       </c>
       <c r="G104" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H104" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I104" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4340,7 +4046,7 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D105">
         <v>357</v>
@@ -4352,13 +4058,13 @@
         <v>9282</v>
       </c>
       <c r="G105" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H105" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I105" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4369,7 +4075,7 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="D106">
         <v>2750</v>
@@ -4381,13 +4087,13 @@
         <v>2090</v>
       </c>
       <c r="G106" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H106" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I106" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4398,7 +4104,7 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="D107">
         <v>3560</v>
@@ -4410,13 +4116,13 @@
         <v>13563.6</v>
       </c>
       <c r="G107" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H107" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I107" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4427,7 +4133,7 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D108">
         <v>664</v>
@@ -4439,13 +4145,13 @@
         <v>17337.04</v>
       </c>
       <c r="G108" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H108" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4456,7 +4162,7 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="D109">
         <v>320</v>
@@ -4468,13 +4174,13 @@
         <v>19520</v>
       </c>
       <c r="G109" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H109" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I109" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4485,7 +4191,7 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="D110">
         <v>279</v>
@@ -4497,13 +4203,13 @@
         <v>10044</v>
       </c>
       <c r="G110" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H110" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I110" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4514,7 +4220,7 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D111">
         <v>275</v>
@@ -4526,13 +4232,13 @@
         <v>2904</v>
       </c>
       <c r="G111" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H111" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I111" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4543,7 +4249,7 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D112">
         <v>490</v>
@@ -4555,13 +4261,13 @@
         <v>137190.2</v>
       </c>
       <c r="G112" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H112" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I112" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4572,7 +4278,7 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <v>257</v>
@@ -4584,13 +4290,13 @@
         <v>1285</v>
       </c>
       <c r="G113" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H113" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I113" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4601,7 +4307,7 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D114">
         <v>267</v>
@@ -4613,13 +4319,13 @@
         <v>1735.5</v>
       </c>
       <c r="G114" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H114" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I114" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4630,7 +4336,7 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D115">
         <v>261</v>
@@ -4642,13 +4348,13 @@
         <v>2116.71</v>
       </c>
       <c r="G115" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H115" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I115" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4659,7 +4365,7 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D116">
         <v>1235</v>
@@ -4671,13 +4377,13 @@
         <v>16981.25</v>
       </c>
       <c r="G116" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H116" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I116" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4688,7 +4394,7 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="D117">
         <v>518</v>
@@ -4700,13 +4406,13 @@
         <v>5402.74</v>
       </c>
       <c r="G117" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H117" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I117" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4717,7 +4423,7 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D118">
         <v>483</v>
@@ -4729,13 +4435,13 @@
         <v>37818.9</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="H118" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I118" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4746,7 +4452,7 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D119">
         <v>863</v>
@@ -4758,13 +4464,13 @@
         <v>55534.05</v>
       </c>
       <c r="G119" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H119" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I119" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4775,7 +4481,7 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D120">
         <v>962</v>
@@ -4787,13 +4493,13 @@
         <v>5425.679999999999</v>
       </c>
       <c r="G120" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H120" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I120" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4804,7 +4510,7 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D121">
         <v>24</v>
@@ -4816,13 +4522,13 @@
         <v>117600</v>
       </c>
       <c r="G121" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H121" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I121" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4833,7 +4539,7 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="D122">
         <v>2670</v>
@@ -4845,13 +4551,13 @@
         <v>6621.6</v>
       </c>
       <c r="G122" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H122" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I122" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4862,7 +4568,7 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D123">
         <v>247</v>
@@ -4874,13 +4580,13 @@
         <v>3947.06</v>
       </c>
       <c r="G123" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H123" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I123" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4891,7 +4597,7 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D124">
         <v>247</v>
@@ -4903,13 +4609,13 @@
         <v>6150.299999999999</v>
       </c>
       <c r="G124" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H124" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I124" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4920,7 +4626,7 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="D125">
         <v>224</v>
@@ -4932,13 +4638,13 @@
         <v>5317.759999999999</v>
       </c>
       <c r="G125" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H125" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I125" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4949,7 +4655,7 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="D126">
         <v>204</v>
@@ -4961,13 +4667,13 @@
         <v>4671.599999999999</v>
       </c>
       <c r="G126" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H126" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I126" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4978,7 +4684,7 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="D127">
         <v>224</v>
@@ -4990,13 +4696,13 @@
         <v>5013.12</v>
       </c>
       <c r="G127" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H127" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I127" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5007,7 +4713,7 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="D128">
         <v>1895</v>
@@ -5019,13 +4725,13 @@
         <v>42448</v>
       </c>
       <c r="G128" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="H128" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I128" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5036,7 +4742,7 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="D129">
         <v>437</v>
@@ -5048,13 +4754,13 @@
         <v>80088.99000000001</v>
       </c>
       <c r="G129" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H129" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I129" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5065,7 +4771,7 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="D130">
         <v>94</v>
@@ -5077,13 +4783,13 @@
         <v>34780</v>
       </c>
       <c r="G130" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H130" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I130" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5094,7 +4800,7 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="D131">
         <v>500</v>
@@ -5106,13 +4812,13 @@
         <v>75995</v>
       </c>
       <c r="G131" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H131" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I131" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5123,7 +4829,7 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="D132">
         <v>41</v>
@@ -5135,13 +4841,13 @@
         <v>27018.59</v>
       </c>
       <c r="G132" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H132" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I132" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5152,7 +4858,7 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="D133">
         <v>34</v>
@@ -5164,13 +4870,13 @@
         <v>14184.8</v>
       </c>
       <c r="G133" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H133" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I133" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5181,7 +4887,7 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="D134">
         <v>40</v>
@@ -5193,13 +4899,13 @@
         <v>18732.8</v>
       </c>
       <c r="G134" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H134" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I134" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5210,7 +4916,7 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="D135">
         <v>28</v>
@@ -5222,13 +4928,13 @@
         <v>17886.68</v>
       </c>
       <c r="G135" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H135" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I135" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5239,7 +4945,7 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="D136">
         <v>30</v>
@@ -5251,13 +4957,13 @@
         <v>123506.7</v>
       </c>
       <c r="G136" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H136" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I136" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5268,7 +4974,7 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="D137">
         <v>66</v>
@@ -5280,13 +4986,13 @@
         <v>181420.8</v>
       </c>
       <c r="G137" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H137" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I137" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5297,7 +5003,7 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="D138">
         <v>71</v>
@@ -5309,13 +5015,13 @@
         <v>15407</v>
       </c>
       <c r="G138" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H138" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I138" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5326,7 +5032,7 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="D139">
         <v>107</v>
@@ -5338,13 +5044,13 @@
         <v>6644.7</v>
       </c>
       <c r="G139" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H139" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I139" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5355,7 +5061,7 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="D140">
         <v>34</v>
@@ -5367,13 +5073,13 @@
         <v>134928.32</v>
       </c>
       <c r="G140" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H140" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I140" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5384,7 +5090,7 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="D141">
         <v>100</v>
@@ -5396,13 +5102,13 @@
         <v>7800</v>
       </c>
       <c r="G141" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H141" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I141" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5413,7 +5119,7 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="D142">
         <v>50</v>
@@ -5425,13 +5131,13 @@
         <v>12999.5</v>
       </c>
       <c r="G142" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H142" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I142" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5442,7 +5148,7 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="D143">
         <v>114</v>
@@ -5454,13 +5160,13 @@
         <v>9462</v>
       </c>
       <c r="G143" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H143" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I143" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5471,7 +5177,7 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="D144">
         <v>178</v>
@@ -5483,13 +5189,13 @@
         <v>75472</v>
       </c>
       <c r="G144" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H144" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I144" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5500,7 +5206,7 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="D145">
         <v>77</v>
@@ -5512,13 +5218,13 @@
         <v>3349.5</v>
       </c>
       <c r="G145" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H145" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I145" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5529,7 +5235,7 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="D146">
         <v>83</v>
@@ -5541,13 +5247,13 @@
         <v>4205.610000000001</v>
       </c>
       <c r="G146" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H146" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I146" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5558,7 +5264,7 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="D147">
         <v>79</v>
@@ -5570,13 +5276,13 @@
         <v>4510.900000000001</v>
       </c>
       <c r="G147" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H147" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I147" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5587,7 +5293,7 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="D148">
         <v>195</v>
@@ -5599,13 +5305,13 @@
         <v>3900</v>
       </c>
       <c r="G148" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H148" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I148" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5616,7 +5322,7 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D149">
         <v>185</v>
@@ -5628,13 +5334,13 @@
         <v>7400</v>
       </c>
       <c r="G149" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H149" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I149" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5645,7 +5351,7 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="D150">
         <v>209</v>
@@ -5657,13 +5363,13 @@
         <v>8778</v>
       </c>
       <c r="G150" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H150" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I150" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5674,7 +5380,7 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="D151">
         <v>1568</v>
@@ -5686,13 +5392,13 @@
         <v>24304</v>
       </c>
       <c r="G151" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H151" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I151" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5703,7 +5409,7 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="D152">
         <v>2830</v>
@@ -5715,13 +5421,13 @@
         <v>4782.7</v>
       </c>
       <c r="G152" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H152" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I152" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5732,7 +5438,7 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="D153">
         <v>14</v>
@@ -5744,13 +5450,13 @@
         <v>55482</v>
       </c>
       <c r="G153" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H153" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I153" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5761,7 +5467,7 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="D154">
         <v>100</v>
@@ -5773,13 +5479,13 @@
         <v>16990</v>
       </c>
       <c r="G154" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H154" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I154" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5790,7 +5496,7 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="D155">
         <v>162</v>
@@ -5802,13 +5508,13 @@
         <v>4210.38</v>
       </c>
       <c r="G155" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H155" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I155" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5819,7 +5525,7 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="D156">
         <v>12</v>
@@ -5831,13 +5537,13 @@
         <v>2748</v>
       </c>
       <c r="G156" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H156" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I156" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5848,7 +5554,7 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="D157">
         <v>12</v>
@@ -5860,13 +5566,13 @@
         <v>5777.28</v>
       </c>
       <c r="G157" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H157" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I157" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5877,7 +5583,7 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="D158">
         <v>152</v>
@@ -5889,13 +5595,13 @@
         <v>2964</v>
       </c>
       <c r="G158" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H158" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I158" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5906,7 +5612,7 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="D159">
         <v>147</v>
@@ -5918,13 +5624,13 @@
         <v>2572.5</v>
       </c>
       <c r="G159" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H159" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I159" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5935,7 +5641,7 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="D160">
         <v>152</v>
@@ -5947,13 +5653,13 @@
         <v>3070.4</v>
       </c>
       <c r="G160" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H160" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I160" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5964,7 +5670,7 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="D161">
         <v>84</v>
@@ -5976,13 +5682,13 @@
         <v>4524.24</v>
       </c>
       <c r="G161" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H161" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I161" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5993,7 +5699,7 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="D162">
         <v>84</v>
@@ -6005,13 +5711,13 @@
         <v>3780</v>
       </c>
       <c r="G162" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H162" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I162" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6022,7 +5728,7 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="D163">
         <v>85</v>
@@ -6034,13 +5740,13 @@
         <v>8065.65</v>
       </c>
       <c r="G163" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H163" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I163" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6051,7 +5757,7 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="D164">
         <v>125</v>
@@ -6063,13 +5769,13 @@
         <v>8036.250000000001</v>
       </c>
       <c r="G164" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H164" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I164" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6080,7 +5786,7 @@
         <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="D165">
         <v>28</v>
@@ -6092,13 +5798,13 @@
         <v>42672</v>
       </c>
       <c r="G165" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H165" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I165" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6109,7 +5815,7 @@
         <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="D166">
         <v>46</v>
@@ -6121,13 +5827,13 @@
         <v>22494</v>
       </c>
       <c r="G166" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H166" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I166" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6138,7 +5844,7 @@
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="D167">
         <v>1550</v>
@@ -6150,13 +5856,13 @@
         <v>3208.5</v>
       </c>
       <c r="G167" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H167" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I167" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6167,7 +5873,7 @@
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="D168">
         <v>600</v>
@@ -6179,13 +5885,13 @@
         <v>2232</v>
       </c>
       <c r="G168" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H168" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I168" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6196,7 +5902,7 @@
         <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="D169">
         <v>131</v>
@@ -6208,13 +5914,13 @@
         <v>5027.780000000001</v>
       </c>
       <c r="G169" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H169" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I169" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6225,7 +5931,7 @@
         <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="D170">
         <v>144</v>
@@ -6237,13 +5943,13 @@
         <v>11376</v>
       </c>
       <c r="G170" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H170" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I170" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6254,7 +5960,7 @@
         <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="D171">
         <v>97</v>
@@ -6266,13 +5972,13 @@
         <v>8885.199999999999</v>
       </c>
       <c r="G171" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H171" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I171" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6283,7 +5989,7 @@
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="D172">
         <v>258</v>
@@ -6295,13 +6001,13 @@
         <v>19605.42</v>
       </c>
       <c r="G172" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H172" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I172" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6312,7 +6018,7 @@
         <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="D173">
         <v>1647</v>
@@ -6324,13 +6030,13 @@
         <v>25446.15</v>
       </c>
       <c r="G173" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H173" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I173" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6341,7 +6047,7 @@
         <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="D174">
         <v>259</v>
@@ -6353,13 +6059,13 @@
         <v>1665.37</v>
       </c>
       <c r="G174" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H174" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I174" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6370,7 +6076,7 @@
         <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="D175">
         <v>277</v>
@@ -6382,13 +6088,13 @@
         <v>1390.54</v>
       </c>
       <c r="G175" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H175" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I175" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6399,7 +6105,7 @@
         <v>183</v>
       </c>
       <c r="C176" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="D176">
         <v>254</v>
@@ -6411,13 +6117,13 @@
         <v>889</v>
       </c>
       <c r="G176" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H176" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I176" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6428,7 +6134,7 @@
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="D177">
         <v>253</v>
@@ -6440,13 +6146,13 @@
         <v>1596.43</v>
       </c>
       <c r="G177" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H177" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I177" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6457,7 +6163,7 @@
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="D178">
         <v>89</v>
@@ -6469,13 +6175,13 @@
         <v>46940.38</v>
       </c>
       <c r="G178" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H178" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I178" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6486,7 +6192,7 @@
         <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="D179">
         <v>51</v>
@@ -6498,13 +6204,13 @@
         <v>6573.900000000001</v>
       </c>
       <c r="G179" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H179" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I179" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6515,7 +6221,7 @@
         <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="D180">
         <v>130</v>
@@ -6527,13 +6233,13 @@
         <v>150540</v>
       </c>
       <c r="G180" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H180" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I180" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6544,7 +6250,7 @@
         <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="D181">
         <v>100</v>
@@ -6556,13 +6262,13 @@
         <v>4782</v>
       </c>
       <c r="G181" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H181" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="I181" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6573,7 +6279,7 @@
         <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="D182">
         <v>70</v>
@@ -6585,13 +6291,13 @@
         <v>10710</v>
       </c>
       <c r="G182" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H182" t="s">
-        <v>311</v>
+        <v>213</v>
       </c>
       <c r="I182" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6602,7 +6308,7 @@
         <v>110</v>
       </c>
       <c r="C183" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="D183">
         <v>411</v>
@@ -6614,13 +6320,13 @@
         <v>34935</v>
       </c>
       <c r="G183" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H183" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I183" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6631,7 +6337,7 @@
         <v>111</v>
       </c>
       <c r="C184" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D184">
         <v>452</v>
@@ -6643,13 +6349,13 @@
         <v>22554.8</v>
       </c>
       <c r="G184" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H184" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I184" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6660,7 +6366,7 @@
         <v>112</v>
       </c>
       <c r="C185" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D185">
         <v>130</v>
@@ -6672,13 +6378,13 @@
         <v>8125</v>
       </c>
       <c r="G185" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H185" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I185" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6689,7 +6395,7 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D186">
         <v>69</v>
@@ -6701,13 +6407,13 @@
         <v>12192.99</v>
       </c>
       <c r="G186" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H186" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I186" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6718,7 +6424,7 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="D187">
         <v>75</v>
@@ -6730,13 +6436,13 @@
         <v>17625</v>
       </c>
       <c r="G187" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H187" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I187" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6747,7 +6453,7 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="D188">
         <v>1245</v>
@@ -6759,13 +6465,13 @@
         <v>29880</v>
       </c>
       <c r="G188" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="H188" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I188" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6776,7 +6482,7 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="D189">
         <v>72</v>
@@ -6788,13 +6494,13 @@
         <v>51480</v>
       </c>
       <c r="G189" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H189" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I189" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6805,7 +6511,7 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="D190">
         <v>72</v>
@@ -6817,13 +6523,13 @@
         <v>64008</v>
       </c>
       <c r="G190" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H190" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I190" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6834,7 +6540,7 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="D191">
         <v>145</v>
@@ -6846,13 +6552,13 @@
         <v>57565</v>
       </c>
       <c r="G191" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H191" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I191" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6863,7 +6569,7 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="D192">
         <v>43</v>
@@ -6875,13 +6581,13 @@
         <v>1032</v>
       </c>
       <c r="G192" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H192" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I192" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6892,7 +6598,7 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="D193">
         <v>72</v>
@@ -6904,13 +6610,13 @@
         <v>51480</v>
       </c>
       <c r="G193" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H193" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I193" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6921,7 +6627,7 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="D194">
         <v>295</v>
@@ -6933,13 +6639,13 @@
         <v>20650</v>
       </c>
       <c r="G194" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H194" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I194" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6950,7 +6656,7 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>297</v>
+        <v>199</v>
       </c>
       <c r="D195">
         <v>2614</v>
@@ -6962,13 +6668,13 @@
         <v>10978.8</v>
       </c>
       <c r="G195" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H195" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I195" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6979,7 +6685,7 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="D196">
         <v>2205</v>
@@ -6991,13 +6697,13 @@
         <v>29238.3</v>
       </c>
       <c r="G196" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H196" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I196" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7008,7 +6714,7 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="D197">
         <v>373</v>
@@ -7020,13 +6726,13 @@
         <v>26110</v>
       </c>
       <c r="G197" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H197" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I197" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7037,7 +6743,7 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="D198">
         <v>20</v>
@@ -7049,13 +6755,13 @@
         <v>8060.599999999999</v>
       </c>
       <c r="G198" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H198" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I198" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7066,7 +6772,7 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="D199">
         <v>42</v>
@@ -7078,13 +6784,13 @@
         <v>3998.4</v>
       </c>
       <c r="G199" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H199" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I199" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7095,7 +6801,7 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="D200">
         <v>75</v>
@@ -7107,13 +6813,13 @@
         <v>13959</v>
       </c>
       <c r="G200" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="H200" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I200" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7124,7 +6830,7 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="D201">
         <v>40</v>
@@ -7136,13 +6842,13 @@
         <v>26236</v>
       </c>
       <c r="G201" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="H201" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="I201" t="s">
-        <v>312</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
